--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -1,83 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaa_yonsei\2023_02 yonsei\AIE_Hackathon\AIE_hackathon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9615"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Remaining Credits</t>
-  </si>
-  <si>
-    <t>전공기초</t>
-  </si>
-  <si>
-    <t>전공필수</t>
-  </si>
-  <si>
-    <t>전공선택</t>
-  </si>
-  <si>
-    <t>일반교양</t>
-  </si>
-  <si>
-    <t>교양기초</t>
-  </si>
-  <si>
-    <t>대학교양</t>
-  </si>
-  <si>
-    <t>공통기초</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,85 +420,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining Credits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>전필</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GLC교양</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,16 @@
         <v>-8</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3천, 4천 단위</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,72 +436,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Remaining Credits</t>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>전필</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GLC교양</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>3천, 4천 단위</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>전기</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>전필</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C2" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GLC교양</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3천, 4천 단위</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="F2" t="n">
         <v>45</v>
       </c>
     </row>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>GLC교양</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>3-4000단위</t>
         </is>
       </c>
@@ -474,6 +479,9 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>45</v>
       </c>
     </row>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -1,79 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c793a9fc5ba112ef/Desktop/2023-2/햌어톤/AIE_hackathon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5BB05107522DF9304F3088B35299F381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB0A14F-7AF7-4A1D-8264-0C51BCB99725}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2268" windowWidth="17496" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Remaining Credits</t>
-  </si>
-  <si>
-    <t>전선</t>
-  </si>
-  <si>
-    <t>전필</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>GLC교양</t>
-  </si>
-  <si>
-    <t>전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,69 +420,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>전기</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>전필</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GLC교양</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3~4000단위</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-8</v>
-      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,79 +436,129 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>채플</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>기독교</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GLC 영어</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GLC교양</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RC필수</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>소계</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t> </t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전기</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>전필</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GLC교양</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>3~4000단위</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>이수</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>18</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>필요</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>기독교</t>
+          <t>기독교의 이해</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GLC 영어</t>
+          <t>GLC영어</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RC필수</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -490,11 +490,6 @@
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>3~4000단위</t>
         </is>
@@ -506,15 +501,29 @@
           <t>이수</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I2" t="n">
         <v>12</v>
       </c>
@@ -525,9 +534,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,15 +543,29 @@
           <t>필요</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
@@ -555,10 +575,7 @@
       <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,11 +498,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이수</t>
+          <t>요건</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -511,13 +511,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,41 +525,39 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24</v>
+      </c>
+      <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>필요</t>
+          <t>이수</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -567,15 +565,57 @@
         </is>
       </c>
       <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>필요</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3~4000단위</t>
+          <t>3-4000단위</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,9 @@
       <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -615,7 +617,9 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,37 +461,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>소계</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>전기</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>전필</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>3-4000단위</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>바이오생활공학 부전공 전기</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>바이오생활공학 부전공 전필</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>바이오생활공학 부전공 전선</t>
         </is>
       </c>
     </row>
@@ -513,29 +533,37 @@
       <c r="E2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>18</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>45</v>
       </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -555,29 +583,37 @@
       <c r="E3" t="n">
         <v>18</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>23</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -597,29 +633,37 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>24</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>45</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -461,42 +461,42 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>RC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>소계</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>소계</t>
+          <t> </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>전기</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>전선</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>전선</t>
+          <t>전필</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>전필</t>
+          <t>3-4000단위</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>3-4000단위</t>
+          <t> </t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -533,33 +533,33 @@
       <c r="E2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
         <v>15</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" t="n">
         <v>45</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -583,24 +583,22 @@
       <c r="E3" t="n">
         <v>18</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
         <v>23</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -608,8 +606,10 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -633,33 +633,33 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" t="n">
         <v>45</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,22 +496,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>(부)바이오생활공학 전기</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>바이오생활공학 부전공 전기</t>
+          <t>(부)바이오생활공학 전필</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>바이오생활공학 부전공 전필</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>바이오생활공학 부전공 전선</t>
+          <t>(부)바이오생활공학 전선</t>
         </is>
       </c>
     </row>
@@ -556,14 +551,15 @@
       <c r="L2" t="n">
         <v>45</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -606,14 +602,15 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -658,12 +655,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>(6,)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>(12,)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>(24,)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -653,20 +653,14 @@
       <c r="L4" t="n">
         <v>45</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>(6,)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>(12,)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>(24,)</t>
-        </is>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,21 +494,6 @@
           <t>3-4000단위</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전기</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전필</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전선</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,15 +536,6 @@
       <c r="L2" t="n">
         <v>45</v>
       </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,15 +578,6 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -652,15 +619,6 @@
       </c>
       <c r="L4" t="n">
         <v>45</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>3-4000단위</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>(부)바이오생활공학 전기</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>(부)바이오생활공학 전필</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>(부)바이오생활공학 전선</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,6 +551,15 @@
       <c r="L2" t="n">
         <v>45</v>
       </c>
+      <c r="M2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,6 +602,15 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -619,6 +652,15 @@
       </c>
       <c r="L4" t="n">
         <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,22 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3-4000단위</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전기</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전필</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전선</t>
+          <t>3~4000단위</t>
         </is>
       </c>
     </row>
@@ -540,26 +525,15 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
-        <v>45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,15 +576,6 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,26 +607,15 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
-        <v>45</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -657,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,22 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3-4000단위</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전기</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전필</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>(부)바이오생활공학 전선</t>
+          <t>3~4000단위</t>
         </is>
       </c>
     </row>
@@ -540,26 +525,15 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
-        <v>45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,15 +576,6 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,26 +607,15 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
-        <v>45</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>3~4000단위</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>(2전공 )바이오생활공학 전공기초</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>(2전공 )바이오생활공학 전필</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>(2전공 )바이오생활공학 전선</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +549,15 @@
         <v>12</v>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,6 +600,15 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -616,6 +649,15 @@
         <v>12</v>
       </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,21 @@
           <t>(2전공 )바이오생활공학 전선</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전기</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전필</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전선</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +573,15 @@
       <c r="O2" t="n">
         <v>15</v>
       </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -609,6 +633,15 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +689,15 @@
         <v>12</v>
       </c>
       <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15</v>
       </c>
     </row>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,37 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3~4000단위</t>
+          <t>3-4000단위</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>(2전공 )바이오생활공학 전공기초</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>(2전공 )바이오생활공학 전필</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>(2전공 )바이오생활공학 전선</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>(부)문화미디어 전기</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>(부)문화미디어 전필</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>(부)문화미디어 전선</t>
+          <t>총이수</t>
         </is>
       </c>
     </row>
@@ -555,32 +530,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
       <c r="M2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -625,22 +587,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -673,32 +620,19 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
       <c r="M4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>총이수</t>
+          <t>(2전공 )바이오생활공학 전기</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>(2전공 )바이오생활공학 전필</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>(2전공 )바이오생활공학 전선</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전기</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전필</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>(부)문화미디어 전선</t>
         </is>
       </c>
     </row>
@@ -530,10 +555,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
@@ -542,7 +567,22 @@
         <v>45</v>
       </c>
       <c r="M2" t="n">
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +627,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -620,10 +675,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>12</v>
@@ -632,7 +687,22 @@
         <v>45</v>
       </c>
       <c r="M4" t="n">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>(부)문화미디어 전선</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>총이수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>15</v>
       </c>
+      <c r="S2" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -703,6 +714,9 @@
       </c>
       <c r="R4" t="n">
         <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
